--- a/src/public/data.xlsx
+++ b/src/public/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23" count="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33" count="33">
   <x:si>
     <x:t>id</x:t>
   </x:si>
@@ -34,10 +34,43 @@
     <x:t>sex</x:t>
   </x:si>
   <x:si>
-    <x:t>11d5e728-ef0a-4640-920a-feda988bdd17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-09-02T04:56:16.083Z</x:t>
+    <x:t>05339964-e895-4d1f-9539-8b87e920ec51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-03T01:23:29.311Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>test@mail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>male</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7bf76b76-0802-4028-a9f9-c930f839426c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-03T01:23:42.323Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fernando</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fernando@mail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5137716f-e328-4238-b6aa-3f01e2be5c6a</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-03T01:23:51.557Z</x:t>
   </x:si>
   <x:si>
     <x:t>fabiola</x:t>
@@ -52,37 +85,34 @@
     <x:t>female</x:t>
   </x:si>
   <x:si>
-    <x:t>a3bf8cb4-1166-4b54-aa0c-df751c99ed41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-09-02T04:56:30.313Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fernando</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fernando@mail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>male</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dcaf926a-9809-49ea-81e5-97b7ee561554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-09-02T04:56:46.159Z</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test</x:t>
-  </x:si>
-  <x:si>
-    <x:t>test@mail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>123</x:t>
+    <x:t>450f4c90-e643-4fd8-8f87-6bb97429313f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-03T01:24:05.895Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mayra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mayra@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7b546831-965c-4084-8a30-aa1d70922afe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-09-03T01:24:37.102Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>john</x:t>
+  </x:si>
+  <x:si>
+    <x:t>john@mail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -502,27 +532,67 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="A4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
